--- a/data/income_statement/3digits/total/862_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/862_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>862-Medical and dental practice activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>862-Medical and dental practice activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>3115954.08878</v>
@@ -956,37 +862,42 @@
         <v>3126780.36137</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>3522726.07769</v>
+        <v>3524357.4183</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3703602.10934</v>
+        <v>3703936.90409</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3867757.32466</v>
+        <v>3881087.602930001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4670077.64821</v>
+        <v>4694902.07033</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5329664.623930001</v>
+        <v>5377947.964609999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>6021541.55191</v>
+        <v>6034568.33851</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>7092233.13492</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>9166340.694349999</v>
+        <v>9226751.43011</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>10374884.35288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>10664330.43529</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>11428625.494</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>3025088.77747</v>
@@ -995,37 +906,42 @@
         <v>3037580.55337</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3401137.36822</v>
+        <v>3402705.45099</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3576645.65166</v>
+        <v>3576980.42663</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3750470.43324</v>
+        <v>3763443.35313</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4511929.620010001</v>
+        <v>4536331.833469999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5116289.98862</v>
+        <v>5162285.82808</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5781539.378049999</v>
+        <v>5793794.789770001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>6828069.23045</v>
+        <v>6828069.230450001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8818417.70726</v>
+        <v>8877871.92268</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>9901565.291479999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10178668.92049</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>10825676.399</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>21369.62555</v>
@@ -1040,31 +956,36 @@
         <v>21380.14308</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>31344.90352</v>
+        <v>31346.40352</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>32969.16211</v>
+        <v>33008.14317</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>76823.20259</v>
+        <v>77846.30034</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>49240.33867</v>
+        <v>49300.13701999999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>59983.957</v>
+        <v>59983.95699999999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>106637.09624</v>
+        <v>106651.39765</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>173848.94471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>179623.60737</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>344119.578</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>69495.68576000001</v>
@@ -1073,37 +994,42 @@
         <v>74798.06216</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>109358.26631</v>
+        <v>109421.52415</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>105576.3146</v>
+        <v>105576.33438</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>85941.98790000001</v>
+        <v>86297.84628</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>125178.86609</v>
+        <v>125562.09369</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>136551.43272</v>
+        <v>137815.83619</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>190761.83519</v>
+        <v>191473.41172</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>204179.94747</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>241285.89085</v>
+        <v>242228.10978</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>299470.11669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>306037.90743</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>258829.517</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>22514.52983</v>
@@ -1112,37 +1038,42 @@
         <v>18868.86851</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>16670.00416</v>
+        <v>16677.1915</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>14509.71437</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>11486.92836</v>
+        <v>11508.1296</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>13455.85569</v>
+        <v>13587.34231</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>13766.85705</v>
+        <v>13921.32584</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>16892.07068</v>
+        <v>16913.21707</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>18596.96958</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>29313.60478</v>
+        <v>29465.88081</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>35401.4556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>35549.92477</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>66659.773</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>16418.39276</v>
@@ -1157,31 +1088,36 @@
         <v>10143.28486</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>8024.83133</v>
+        <v>8046.03257</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>10861.26264</v>
+        <v>10992.74926</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>10190.21522</v>
+        <v>10343.67402</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>13531.95071</v>
+        <v>13553.0971</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>15203.18077</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>24287.70141</v>
+        <v>24435.69444</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>29694.25441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>29840.41138</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>58444.663</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1644.48791</v>
@@ -1202,7 +1138,7 @@
         <v>1679.69302</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1562.65753</v>
+        <v>1562.97956</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>1280.1799</v>
@@ -1211,16 +1147,21 @@
         <v>1825.51444</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2917.47411</v>
+        <v>2921.75711</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3078.34254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3080.65474</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>4130.317</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>4451.64916</v>
@@ -1229,19 +1170,19 @@
         <v>1364.21651</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1205.29778</v>
+        <v>1212.48512</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>2953.12496</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>990.78253</v>
+        <v>990.7825300000001</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>914.90003</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2013.9843</v>
+        <v>2014.67226</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>2079.94007</v>
@@ -1253,13 +1194,18 @@
         <v>2108.42926</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2628.85865</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2628.858650000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>4084.793</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>3093439.55895</v>
@@ -1268,37 +1214,42 @@
         <v>3107911.49286</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3506056.07353</v>
+        <v>3507680.2268</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3689092.39497</v>
+        <v>3689427.18972</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3856270.3963</v>
+        <v>3869579.47333</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4656621.792520001</v>
+        <v>4681314.728019999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5315897.766880001</v>
+        <v>5364026.63877</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>6004649.481229999</v>
+        <v>6017655.12144</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>7073636.16534</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>9137027.089569999</v>
+        <v>9197285.5493</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>10339482.89728</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>10628780.51052</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>11361965.721</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1915042.90743</v>
@@ -1307,37 +1258,42 @@
         <v>1967369.71677</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2199807.31546</v>
+        <v>2201204.12783</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2351698.67239</v>
+        <v>2351896.67978</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2569131.59473</v>
+        <v>2579506.59692</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3156743.0544</v>
+        <v>3175710.66267</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3609040.95533</v>
+        <v>3645193.15353</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4143463.30316</v>
+        <v>4151816.96266</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>4786965.749559999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>6047773.52751</v>
+        <v>6065354.50673</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>6666936.338219999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6781360.44919</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>7225372.398</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>31945.31248</v>
@@ -1352,31 +1308,36 @@
         <v>44133.10636</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>54761.05785</v>
+        <v>54768.26544</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>40236.29369</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>42913.53373999999</v>
+        <v>44559.82335</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>68095.41003999999</v>
+        <v>68095.41004</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>83502.29742</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>132718.67273</v>
+        <v>133118.68036</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>176997.99927</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>176885.76005</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>158983.936</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>135590.00629</v>
@@ -1391,31 +1352,36 @@
         <v>156562.98131</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>117589.6816</v>
+        <v>119822.62582</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>97098.76496000001</v>
+        <v>97860.97227</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>157518.91013</v>
+        <v>160334.59819</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>186833.74693</v>
+        <v>187034.8802</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>201208.05438</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>257075.71203</v>
+        <v>258052.4979</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>429664.14899</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>438939.9732000001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>546841.916</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1743621.63257</v>
@@ -1424,43 +1390,48 @@
         <v>1782172.71571</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1971217.89548</v>
+        <v>1972614.70785</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2146323.68519</v>
+        <v>2146521.69258</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2391608.03753</v>
+        <v>2399742.88791</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2994865.36821</v>
+        <v>3013046.65909</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3393817.44131</v>
+        <v>3425219.54111</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3863002.11517</v>
+        <v>3871151.09028</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>4471064.01916</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>5628489.552960001</v>
+        <v>5644406.291479999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>6012839.673760001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>6116614.767229999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>6462784.339</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>3885.95609</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>5863.26685</v>
+        <v>5863.266850000001</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>14325.93079</v>
@@ -1469,31 +1440,36 @@
         <v>4678.899530000001</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>5172.81775</v>
+        <v>5172.817749999999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>24542.62754</v>
+        <v>24566.73762</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>14791.07015</v>
+        <v>15079.19088</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>25532.03102</v>
+        <v>25535.58214</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>31191.3786</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>29489.58979</v>
+        <v>29777.03699</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>47434.51620000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>48919.94871</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>56762.207</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1178396.65152</v>
@@ -1502,37 +1478,42 @@
         <v>1140541.77609</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1306248.75807</v>
+        <v>1306476.09897</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1337393.72258</v>
+        <v>1337530.50994</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1287138.80157</v>
+        <v>1290072.87641</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1499878.73812</v>
+        <v>1505604.06535</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1706856.81155</v>
+        <v>1718833.48524</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1861186.17807</v>
+        <v>1865838.15878</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2286670.41578</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3089253.56206</v>
+        <v>3131931.04257</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3672546.55906</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3847420.06133</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4136593.323</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>717499.16047</v>
@@ -1541,37 +1522,42 @@
         <v>705241.8056600001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>798684.89955</v>
+        <v>798868.27966</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>829597.5822599999</v>
+        <v>829729.7600199999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>824942.08003</v>
+        <v>827928.2671800001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>981822.2105999999</v>
+        <v>985706.71956</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1104126.15667</v>
+        <v>1113522.25283</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1275930.82742</v>
+        <v>1277745.49952</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1476813.12364</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1881608.42765</v>
+        <v>1903509.51875</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2138108.77665</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2233137.44345</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2329382.78</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2311.26904</v>
@@ -1586,13 +1572,13 @@
         <v>2454.09566</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>995.3337899999999</v>
+        <v>995.33379</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>584.21777</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1136.48054</v>
+        <v>1292.14522</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>2301.42401</v>
@@ -1601,55 +1587,65 @@
         <v>1849.54157</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>2197.80059</v>
+        <v>2377.80059</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>2173.41967</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2223.688889999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2971.26</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>51528.42761999999</v>
+        <v>51528.42762</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>54316.64494999999</v>
+        <v>54316.64495</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>68440.51734999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>70373.14872999999</v>
+        <v>70373.14873</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>77445.55041</v>
+        <v>77479.50108</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>91580.92206999999</v>
+        <v>91847.58101000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>113343.26005</v>
+        <v>114294.85905</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>130986.09705</v>
+        <v>131515.97618</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>150537.33425</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>168276.28527</v>
+        <v>168989.55491</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>203269.96535</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>206087.17675</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>170129.001</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>663659.46381</v>
@@ -1658,115 +1654,130 @@
         <v>649914.07513</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>728213.4786199998</v>
+        <v>728396.85873</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>756770.3378700002</v>
+        <v>756902.5156300002</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>746501.1958299999</v>
+        <v>749453.4323099999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>889657.07076</v>
+        <v>893274.92078</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>989646.41608</v>
+        <v>997935.2485600001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1142643.30636</v>
+        <v>1143928.09933</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1324426.24782</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1711134.34179</v>
+        <v>1732142.16325</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1932665.39163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2024826.57781</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2156282.519</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>460897.49105</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>435299.9704299999</v>
+        <v>435299.97043</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>507563.85852</v>
+        <v>507607.8193099999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>507796.14032</v>
+        <v>507800.74992</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>462196.7215399999</v>
+        <v>462144.60923</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>518056.52752</v>
+        <v>519897.3457900001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>602730.65488</v>
+        <v>605311.2324100001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>585255.3506499999</v>
+        <v>588092.65926</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>809857.2921400002</v>
+        <v>809857.29214</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1207645.13441</v>
+        <v>1228421.52382</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1534437.78241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1614282.61788</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1807210.543</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>68701.1921</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>66479.28429000001</v>
+        <v>66479.28429</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>64033.22461</v>
+        <v>64033.91765</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>85127.95211</v>
+        <v>85147.95210999998</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>72227.51443000001</v>
+        <v>72232.65525</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>92418.87495999999</v>
+        <v>92444.79751999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>148494.54611</v>
+        <v>149380.84496</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>159220.10755</v>
+        <v>159616.82563</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>205709.42211</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>395915.507</v>
+        <v>395980.45849</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>317744.53364</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>319100.43067</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>334206.647</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2927.25016</v>
@@ -1801,14 +1812,19 @@
       <c r="M26" s="48" t="n">
         <v>5102.33904</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>10468.734</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>4373.719309999999</v>
+        <v>4373.71931</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>723.37305</v>
@@ -1817,7 +1833,7 @@
         <v>533.41702</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>7553.76857</v>
+        <v>7553.768570000001</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>1412.63728</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>1760.82916</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>3333.984</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>13842.69255</v>
@@ -1862,28 +1883,33 @@
         <v>15833.6778</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>30948.04933</v>
+        <v>30962.73608</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>44236.48821</v>
+        <v>44336.54315</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>56672.68324</v>
+        <v>56996.09865</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>79136.06965</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>114968.21263</v>
+        <v>115022.03825</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>155686.12455</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>156438.93744</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>74073.899</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>559.8491899999999</v>
@@ -1892,7 +1918,7 @@
         <v>454.50339</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>568.8935900000001</v>
+        <v>568.89359</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>348.56349</v>
@@ -1904,7 +1930,7 @@
         <v>283.67484</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>402.16037</v>
+        <v>403.74262</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>385.97212</v>
@@ -1913,16 +1939,21 @@
         <v>486.95498</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>2712.38266</v>
+        <v>2712.39266</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>162.34528</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>331.3201999999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>301.519</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>428.8997199999999</v>
@@ -1931,10 +1962,10 @@
         <v>524.84721</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>719.33636</v>
+        <v>719.3363600000001</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>6221.19992</v>
+        <v>6221.199919999999</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>424.11202</v>
@@ -1955,13 +1986,18 @@
         <v>1048.19223</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>961.0997300000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>980.2518100000001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1660.714</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1458.28921</v>
@@ -1976,31 +2012,36 @@
         <v>2140.30163</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1792.65376</v>
+        <v>1793.12148</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>2107.63719</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2578.48558</v>
+        <v>2578.77849</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2438.15899</v>
+        <v>2439.63023</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>2856.09649</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>4222.19049</v>
+        <v>4373.689490000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>6501.888089999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>6507.75766</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>15610.156</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>28969.7736</v>
@@ -2015,31 +2056,36 @@
         <v>26108.65902</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>29780.72879</v>
+        <v>29784.46857</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>29514.56974</v>
+        <v>29519.98582</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>57002.47553</v>
+        <v>57355.32197</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>52266.31527</v>
+        <v>52384.00557000001</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>77954.78143999999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>207930.20034</v>
+        <v>208042.89446</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>92786.35659000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>92391.55459999999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>143878.33</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>306.8955</v>
@@ -2048,7 +2094,7 @@
         <v>47.24428</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>74.10339</v>
+        <v>74.10339000000002</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>100.93402</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>103.13778</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>261.612</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>98.87756</v>
@@ -2087,7 +2138,7 @@
         <v>81.26715</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>16.37689</v>
+        <v>17.06889</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>15.86606</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>1.05251</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>55.757</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>15734.9453</v>
@@ -2126,37 +2182,42 @@
         <v>17347.44618</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>17511.55218</v>
+        <v>17511.55322</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>17886.88871</v>
+        <v>17906.88871</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>19180.81186</v>
+        <v>19181.74518</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>20418.89944</v>
+        <v>20424.71917</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>36590.13214</v>
+        <v>37021.65445</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>39805.67154</v>
+        <v>39759.81267</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>27877.23074</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>44045.47862</v>
+        <v>43792.40137</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>54679.36091</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>55483.25047000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>84561.942</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>32486.41251</v>
@@ -2165,37 +2226,42 @@
         <v>34610.84423</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>61280.8674</v>
+        <v>61280.86872999999</v>
       </c>
       <c r="F36" s="47" t="n">
         <v>36578.99106</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>49488.00329000001</v>
+        <v>49772.84401000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>43969.95868000001</v>
+        <v>44174.52793</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>95038.75419999998</v>
+        <v>95708.52863</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>137997.85357</v>
+        <v>138065.08128</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>124173.66069</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>254569.22464</v>
+        <v>255100.46551</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>115830.84169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>115914.94628</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>108503.843</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2318.97726</v>
@@ -2216,25 +2282,30 @@
         <v>1686.50182</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1669.19136</v>
+        <v>1670.69191</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>3406.75989</v>
+        <v>3408.523250000001</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>3033.67027</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>3901.26459</v>
+        <v>3903.115519999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>4507.000099999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>4473.53712</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>4921.865</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>4045.41509</v>
@@ -2249,31 +2320,36 @@
         <v>3267.51189</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2667.51426</v>
+        <v>2921.20037</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>4979.18948</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>4770.902859999999</v>
+        <v>4788.700859999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>13126.48245</v>
+        <v>13138.45645</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>3564.139770000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>3294.46824</v>
+        <v>3591.20871</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>7596.058909999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>7611.287659999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>2781.499</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>191.54668</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>635.99602</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>2997.792</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>18499.26934</v>
@@ -2327,34 +2408,39 @@
         <v>21067.45462</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>37767.88622</v>
+        <v>37799.04082</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>24538.10085</v>
+        <v>24681.65182</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>69122.59301</v>
+        <v>69683.81345</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>82812.45632</v>
+        <v>82832.34376</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>89236.51428999999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>218180.15185</v>
+        <v>218309.55625</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>84624.87529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>84321.06077</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>77666.201</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>36.32846000000001</v>
+        <v>36.32846</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>206.35254</v>
@@ -2386,14 +2472,19 @@
       <c r="M41" s="48" t="n">
         <v>190.00582</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>247.025</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>73.22318000000001</v>
+        <v>73.22318</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>2352.07359</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0.32462</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>7321.6525</v>
@@ -2438,37 +2534,42 @@
         <v>11944.30911</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>18535.02511</v>
+        <v>18535.02644</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>9051.154500000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>6762.205599999999</v>
+        <v>6762.20561</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>12394.90724</v>
+        <v>12455.92552</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>18723.97903</v>
+        <v>18813.23447</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>38441.96512000001</v>
+        <v>38475.56803</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>25311.59282</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>21517.86996</v>
+        <v>21621.11503</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>18276.58093</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>18682.73427</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>19889.461</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>93629.06143</v>
@@ -2477,37 +2578,42 @@
         <v>89198.65763</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>112966.82932</v>
+        <v>112967.42423</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>104886.42077</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>112890.973</v>
+        <v>113546.27921</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>153579.7291</v>
+        <v>154219.11213</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>183865.72037</v>
+        <v>184969.43235</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>231145.15083</v>
+        <v>232041.63911</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>271264.87346</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>300163.84337</v>
+        <v>300285.19388</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>429933.6483999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>434056.95416</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>210002.387</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>72117.30985999999</v>
@@ -2516,37 +2622,42 @@
         <v>70778.87956</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>82932.71719</v>
+        <v>82933.3121</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>94523.01239</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>107548.46452</v>
+        <v>108203.77073</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>146353.87743</v>
+        <v>146993.26046</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>153975.39366</v>
+        <v>155069.05388</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>208790.12861</v>
+        <v>209680.26397</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>257810.1208</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>285182.63582</v>
+        <v>285303.98633</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>420141.20789</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>424193.51346</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>200145.64</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>21511.75157</v>
@@ -2555,7 +2666,7 @@
         <v>18419.77807</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>30034.11212999999</v>
+        <v>30034.11213</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>10363.40838</v>
@@ -2567,10 +2678,10 @@
         <v>7225.85167</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>29890.32671</v>
+        <v>29900.37847</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>22355.02222</v>
+        <v>22361.37514</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>13454.75266</v>
@@ -2579,52 +2690,62 @@
         <v>14981.20755</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>9792.440510000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>9863.440699999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>9856.746999999999</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>403483.20921</v>
+        <v>403483.2092100001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>377969.75286</v>
+        <v>377969.7528599999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>397349.38641</v>
+        <v>397393.444</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>451458.6806</v>
+        <v>451483.2902</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>372045.25968</v>
+        <v>371058.14126</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>412925.7147</v>
+        <v>413948.50325</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>472320.72642</v>
+        <v>474014.11639</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>375332.4538</v>
+        <v>377602.7645</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>620128.1800999999</v>
+        <v>620128.1801</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1048827.5734</v>
+        <v>1069016.32292</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1306417.82596</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1383411.14811</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1822910.96</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>26269.68676</v>
@@ -2633,46 +2754,51 @@
         <v>31004.34758</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>42324.03447000001</v>
+        <v>42324.03447</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>47482.5525</v>
+        <v>47501.36438</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>62269.39889</v>
+        <v>65591.59144</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>62964.30834999999</v>
+        <v>63014.61711</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>74320.15426</v>
+        <v>75018.16605</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>172555.49272</v>
+        <v>173376.60721</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>127026.98878</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>124558.998</v>
+        <v>124835.69753</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>146231.62095</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>148840.06092</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>156664.376</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>977.19783</v>
+        <v>977.1978300000001</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>1031.63815</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>825.4590899999999</v>
+        <v>825.4590900000001</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>703.41103</v>
@@ -2681,13 +2807,13 @@
         <v>1083.29946</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>916.2716899999999</v>
+        <v>931.48451</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2309.32568</v>
+        <v>2310.85764</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>943.99862</v>
+        <v>943.9986300000002</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>4500.89979</v>
@@ -2696,13 +2822,18 @@
         <v>1692.10057</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1437.93017</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1437.97862</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1707.683</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>25292.48893</v>
@@ -2714,34 +2845,39 @@
         <v>41498.57538</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>46779.14147</v>
+        <v>46797.95335</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>61186.09943</v>
+        <v>64508.29198</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>62048.03666</v>
+        <v>62083.1326</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>72010.82858</v>
+        <v>72707.30841</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>171611.4941</v>
+        <v>172432.60858</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>122526.08899</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>122866.89743</v>
+        <v>123143.59696</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>144793.69078</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>147402.0823</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>154956.693</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>41281.41553</v>
@@ -2750,37 +2886,42 @@
         <v>38743.8581</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>654807.4086999999</v>
+        <v>655175.0642500002</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>69907.57382999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>78153.82192</v>
+        <v>81370.05793000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>277396.95631</v>
+        <v>278663.25881</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>81990.91529999999</v>
+        <v>83135.39581999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>536777.32164</v>
+        <v>537016.3242799999</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>98996.73969</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>495632.75262</v>
+        <v>496137.1388199999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>156935.77443</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>160980.29484</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>133899.569</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1291.94959</v>
@@ -2798,7 +2939,7 @@
         <v>917.74824</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>2067.60395</v>
+        <v>2313.78951</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>3153.88999</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>388.7345</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>2922.409</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>3311.196269999999</v>
@@ -2840,25 +2986,30 @@
         <v>2402.62307</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4818.75575</v>
+        <v>4819.70892</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2537.6737</v>
+        <v>2538.32377</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>1903.81622</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>4778.65896</v>
+        <v>4785.89896</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>5660.54912</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>5806.209419999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>4962.474</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>36678.26967</v>
@@ -2867,37 +3018,42 @@
         <v>35968.93168</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>646563.52501</v>
+        <v>646931.1805599999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>64873.7388</v>
+        <v>64873.73880000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>71438.83581</v>
+        <v>74655.07182000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>272926.72929</v>
+        <v>273946.84623</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>74018.26956</v>
+        <v>75161.79690999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>522662.2701500001</v>
+        <v>522900.62272</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>93825.087</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>489558.51927</v>
+        <v>490055.66547</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>150886.49081</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>154785.35092</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>126014.686</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>388471.48044</v>
@@ -2906,37 +3062,42 @@
         <v>370230.2423400001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-215133.98782</v>
+        <v>-215457.58578</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>429033.65927</v>
+        <v>429077.08075</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>356160.83665</v>
+        <v>355279.67477</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>198493.06674</v>
+        <v>198299.86155</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>464649.96538</v>
+        <v>465896.88662</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>11110.62487999998</v>
+        <v>13963.04743000001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>648158.4291900001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>677753.81878</v>
+        <v>697714.88163</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1295713.67248</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1371270.91419</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1845675.767</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>84525.98834000001</v>
@@ -2945,37 +3106,42 @@
         <v>84226.41494</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>92564.56276</v>
+        <v>92564.56275999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>96195.65433</v>
+        <v>96222.73019000002</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>94040.75939000001</v>
+        <v>94151.30635</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>106383.22617</v>
+        <v>106710.01517</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>119146.40799</v>
+        <v>120109.56856</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>132787.49463</v>
+        <v>133221.66781</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>157504.89151</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>258697.56885</v>
+        <v>261810.0366</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>315170.26015</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>332374.54902</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>405402.269</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>303945.4921</v>
@@ -2984,34 +3150,37 @@
         <v>286003.8274</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-307698.55058</v>
+        <v>-308022.14854</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>332838.00494</v>
+        <v>332854.3505599999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>262120.07726</v>
+        <v>261128.36842</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>92109.84056999999</v>
+        <v>91589.84637999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>345503.55739</v>
+        <v>345787.31806</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-121676.86975</v>
+        <v>-119258.62038</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>490653.53768</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>419056.24993</v>
+        <v>435904.84503</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>980543.41233</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1038896.36517</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1440273.498</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>7232</v>
@@ -3038,34 +3210,37 @@
         <v>7077</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>7052</v>
+        <v>7054</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>6742</v>
+        <v>6745</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6069</v>
+        <v>6089</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>6024</v>
+        <v>6048</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>6205</v>
+        <v>6249</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>6508</v>
+        <v>6582</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>7411</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>8805</v>
+        <v>9347</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>9820</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>10877</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>12409</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>